--- a/FlowSensorPID/experiments.xlsx
+++ b/FlowSensorPID/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="16860" windowHeight="15200" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="-21160" windowWidth="24940" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>defRate</t>
   </si>
@@ -59,23 +59,83 @@
     <t>slow, -&gt;1/dT</t>
   </si>
   <si>
-    <t>per pulse(ml)</t>
-  </si>
-  <si>
     <t>quick(one bite)</t>
   </si>
   <si>
     <t>% of err</t>
+  </si>
+  <si>
+    <t>on Nov.13</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>this data looks good</t>
+  </si>
+  <si>
+    <t>chg kd to reverse(^-1)</t>
+  </si>
+  <si>
+    <t>kp/pow(dT,3)</t>
+  </si>
+  <si>
+    <t>kp/pow(dT,1.5)</t>
+  </si>
+  <si>
+    <t>per pulse(guess)</t>
+  </si>
+  <si>
+    <t>per pulse(real)</t>
+  </si>
+  <si>
+    <t>slow bite</t>
+  </si>
+  <si>
+    <t>kp/pow(1.06169,dT)</t>
+  </si>
+  <si>
+    <t>kp/pow(1.76517,dT/10.0)</t>
+  </si>
+  <si>
+    <t>kp/pow(1.01143,dT*5.0)</t>
+  </si>
+  <si>
+    <t>kp/tan(double(dT/40.0))</t>
+  </si>
+  <si>
+    <t>kp/tan(double(dT/40.0)), dT=18</t>
+  </si>
+  <si>
+    <t>kp/(tan(double(dT)/40.0)*180.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="正文字体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="正文字体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="正文字体"/>
       <family val="2"/>
     </font>
@@ -88,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,14 +156,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -379,18 +468,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,19 +500,22 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>2/17</f>
         <v>0.11764705882352941</v>
@@ -437,18 +533,22 @@
         <v>22.59</v>
       </c>
       <c r="F2">
+        <v>190</v>
+      </c>
+      <c r="G2" s="3">
+        <f>D2/F2</f>
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="H2" s="3">
+        <f>E2/F2</f>
+        <v>0.11889473684210526</v>
+      </c>
+      <c r="I2" s="5">
         <f>(D2-E2)/D2</f>
         <v>9.64E-2</v>
       </c>
-      <c r="G2">
-        <v>190</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I8" si="0">D2/G2</f>
-        <v>0.13157894736842105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>2/17</f>
         <v>0.11764705882352941</v>
@@ -466,18 +566,22 @@
         <v>27.96</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="1">(D3-E3)/D3</f>
+        <v>211</v>
+      </c>
+      <c r="G3" s="3">
+        <f>D3/F3</f>
+        <v>0.14218009478672985</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H39" si="0">E3/F3</f>
+        <v>0.13251184834123222</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(D3-E3)/D3</f>
         <v>6.7999999999999977E-2</v>
       </c>
-      <c r="G3">
-        <v>211</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>0.14218009478672985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>2/17</f>
         <v>0.11764705882352941</v>
@@ -495,20 +599,24 @@
         <v>24.04</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="G4" s="3">
+        <f>D4/F4</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13355555555555554</v>
+      </c>
+      <c r="I4" s="5">
+        <f>(D4-E4)/D4</f>
         <v>-9.2727272727272686E-2</v>
       </c>
-      <c r="G4">
-        <v>180</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.12222222222222222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A9" si="2">2/17</f>
+        <f t="shared" ref="A5:A9" si="1">2/17</f>
         <v>0.11764705882352941</v>
       </c>
       <c r="B5">
@@ -524,23 +632,27 @@
         <v>44.96</v>
       </c>
       <c r="F5">
+        <v>340</v>
+      </c>
+      <c r="G5" s="3">
+        <f>D5/F5</f>
+        <v>0.11470588235294117</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13223529411764706</v>
+      </c>
+      <c r="I5" s="5">
+        <f>(D5-E5)/D5</f>
+        <v>-0.15282051282051284</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
         <f t="shared" si="1"/>
-        <v>-0.15282051282051284</v>
-      </c>
-      <c r="G5">
-        <v>340</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.11470588235294117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B6">
@@ -556,23 +668,27 @@
         <v>45.29</v>
       </c>
       <c r="F6">
+        <v>347</v>
+      </c>
+      <c r="G6" s="3">
+        <f>D6/F6</f>
+        <v>0.12968299711815562</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13051873198847261</v>
+      </c>
+      <c r="I6" s="5">
+        <f>(D6-E6)/D6</f>
+        <v>-6.4444444444444254E-3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
         <f t="shared" si="1"/>
-        <v>-6.4444444444444254E-3</v>
-      </c>
-      <c r="G6">
-        <v>347</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.12968299711815562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B7">
@@ -588,23 +704,27 @@
         <v>43.48</v>
       </c>
       <c r="F7">
+        <v>330</v>
+      </c>
+      <c r="G7" s="3">
+        <f>D7/F7</f>
+        <v>0.11212121212121212</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13175757575757574</v>
+      </c>
+      <c r="I7" s="5">
+        <f>(D7-E7)/D7</f>
+        <v>-0.17513513513513504</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
         <f t="shared" si="1"/>
-        <v>-0.17513513513513504</v>
-      </c>
-      <c r="G7">
-        <v>330</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0.11212121212121212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B8">
@@ -620,23 +740,27 @@
         <v>36.909999999999997</v>
       </c>
       <c r="F8">
+        <v>253</v>
+      </c>
+      <c r="G8" s="3">
+        <f>D8/F8</f>
+        <v>0.15019762845849802</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14588932806324109</v>
+      </c>
+      <c r="I8" s="5">
+        <f>(D8-E8)/D8</f>
+        <v>2.8684210526315878E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
         <f t="shared" si="1"/>
-        <v>2.8684210526315878E-2</v>
-      </c>
-      <c r="G8">
-        <v>253</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0.15019762845849802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B9">
@@ -652,21 +776,25 @@
         <v>48.15</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="G9" s="3">
+        <f>D9/F9</f>
+        <v>0.11331444759206799</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13640226628895183</v>
+      </c>
+      <c r="I9" s="5">
+        <f>(D9-E9)/D9</f>
         <v>-0.20374999999999996</v>
       </c>
-      <c r="G9">
-        <v>353</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="I9">
-        <f>D9/G9</f>
-        <v>0.11331444759206799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>3/22</f>
         <v>0.13636363636363635</v>
@@ -684,222 +812,1549 @@
         <v>36.43</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="G10" s="3">
+        <f>D10/F10</f>
+        <v>0.13418530351437699</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11638977635782748</v>
+      </c>
+      <c r="I10" s="5">
+        <f>(D10-E10)/D10</f>
         <v>0.13261904761904764</v>
       </c>
-      <c r="G10">
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" ref="A11:A17" si="2">3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="B11">
+        <v>-0.4</v>
+      </c>
+      <c r="C11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="F11">
+        <v>303</v>
+      </c>
+      <c r="G11" s="3">
+        <f>D11/F11</f>
+        <v>0.12871287128712872</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13029702970297027</v>
+      </c>
+      <c r="I11" s="5">
+        <f>(D11-E11)/D11</f>
+        <v>-1.2307692307692228E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B12">
+        <v>-0.4</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="F12">
+        <v>357</v>
+      </c>
+      <c r="G12" s="3">
+        <f>D12/F12</f>
+        <v>0.11204481792717087</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11420168067226892</v>
+      </c>
+      <c r="I12" s="5">
+        <f>(D12-E12)/D12</f>
+        <v>-1.925000000000008E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B13">
+        <v>-0.4</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>22.49</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" s="3">
+        <f>D13/F13</f>
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11244999999999999</v>
+      </c>
+      <c r="I13" s="5">
+        <f>(D13-E13)/D13</f>
+        <v>6.2916666666666732E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B14">
+        <v>-0.4</v>
+      </c>
+      <c r="C14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F14">
         <v>313</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I19" si="3">D10/G10</f>
-        <v>0.13418530351437699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="G14" s="3">
+        <f>D14/F14</f>
+        <v>0.11501597444089456</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11166134185303515</v>
+      </c>
+      <c r="I14" s="5">
+        <f>(D14-E14)/D14</f>
+        <v>2.9166666666666587E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B15">
+        <v>-0.4</v>
+      </c>
+      <c r="C15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>19.53</v>
+      </c>
+      <c r="F15">
+        <v>164</v>
+      </c>
+      <c r="G15" s="3">
+        <f>D15/F15</f>
+        <v>0.13414634146341464</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11908536585365855</v>
+      </c>
+      <c r="I15" s="6">
+        <f>(D15-E15)/D15</f>
+        <v>0.11227272727272722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13.74</v>
+      </c>
+      <c r="F16" s="1">
+        <v>108</v>
+      </c>
+      <c r="G16" s="4">
+        <f>D16/F16</f>
+        <v>0.15740740740740741</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.12722222222222224</v>
+      </c>
+      <c r="I16" s="7">
+        <f>(D16-E16)/D16</f>
+        <v>0.19176470588235292</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>-0.4</v>
+      </c>
+      <c r="C17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>4.13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3">
+        <f>D17/F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17208333333333334</v>
+      </c>
+      <c r="I17" s="6" t="e">
+        <f>(D17-E17)/D17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
         <f>3/20</f>
         <v>0.15</v>
       </c>
-      <c r="B11">
+      <c r="B18">
         <v>-0.4</v>
       </c>
-      <c r="C11">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D11">
+      <c r="C18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16.93</v>
+      </c>
+      <c r="F18" s="2">
+        <v>115</v>
+      </c>
+      <c r="G18" s="3">
+        <f>D18/F18</f>
+        <v>0.18260869565217391</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14721739130434783</v>
+      </c>
+      <c r="I18" s="6">
+        <f>(D18-E18)/D18</f>
+        <v>0.19380952380952382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" ref="A19:A23" si="3">3/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="B19">
+        <v>-0.4</v>
+      </c>
+      <c r="C19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2">
+        <v>107</v>
+      </c>
+      <c r="G19" s="3">
+        <f>D19/F19</f>
+        <v>0.20560747663551401</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f>(D19-E19)/D19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="B20">
+        <v>-0.4</v>
+      </c>
+      <c r="C20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="F20" s="2">
+        <v>97</v>
+      </c>
+      <c r="G20" s="3">
+        <f>D20/F20</f>
+        <v>0.37113402061855671</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.19154639175257729</v>
+      </c>
+      <c r="I20" s="6">
+        <f>(D20-E20)/D20</f>
+        <v>0.48388888888888892</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="B21">
+        <v>-0.4</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>38</v>
+      </c>
+      <c r="E21">
+        <v>32.69</v>
+      </c>
+      <c r="F21" s="2">
+        <v>184</v>
+      </c>
+      <c r="G21" s="3">
+        <f>D21/F21</f>
+        <v>0.20652173913043478</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17766304347826087</v>
+      </c>
+      <c r="I21" s="6">
+        <f>(D21-E21)/D21</f>
+        <v>0.13973684210526321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="B22">
+        <v>-0.4</v>
+      </c>
+      <c r="C22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2">
+        <v>309</v>
+      </c>
+      <c r="G22" s="3">
+        <f>D22/F22</f>
+        <v>0.14886731391585761</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f>(D22-E22)/D22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="B23">
+        <v>-0.4</v>
+      </c>
+      <c r="C23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>509</v>
+      </c>
+      <c r="G23" s="3">
+        <f>D23/F23</f>
+        <v>9.4302554027504912E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11787819253438114</v>
+      </c>
+      <c r="I23" s="6">
+        <f>(D23-E23)/D23</f>
+        <v>-0.25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.18</v>
+      </c>
+      <c r="B24">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="C24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2">
+        <v>64.77</v>
+      </c>
+      <c r="F24">
+        <v>430</v>
+      </c>
+      <c r="G24" s="3">
+        <f>D24/F24</f>
+        <v>0.1186046511627907</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15062790697674416</v>
+      </c>
+      <c r="I24" s="6">
+        <f>(D24-E24)/D24</f>
+        <v>-0.26999999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.18</v>
+      </c>
+      <c r="B25">
+        <v>-0.7</v>
+      </c>
+      <c r="C25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2">
+        <v>41.44</v>
+      </c>
+      <c r="F25">
+        <v>298</v>
+      </c>
+      <c r="G25" s="3">
+        <f>D25/F25</f>
+        <v>0.10067114093959731</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13906040268456374</v>
+      </c>
+      <c r="I25" s="6">
+        <f>(D25-E25)/D25</f>
+        <v>-0.38133333333333325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.18</v>
+      </c>
+      <c r="B26">
+        <v>-0.9</v>
+      </c>
+      <c r="C26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2">
+        <v>29.93</v>
+      </c>
+      <c r="F26">
+        <v>258</v>
+      </c>
+      <c r="G26" s="3">
+        <f>D26/F26</f>
+        <v>9.6899224806201556E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1160077519379845</v>
+      </c>
+      <c r="I26" s="6">
+        <f>(D26-E26)/D26</f>
+        <v>-0.19719999999999999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.18</v>
+      </c>
+      <c r="B27">
+        <v>-1.2</v>
+      </c>
+      <c r="C27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2">
+        <v>26.53</v>
+      </c>
+      <c r="F27">
+        <v>202</v>
+      </c>
+      <c r="G27" s="3">
+        <f>D27/F27</f>
+        <v>0.11386138613861387</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13133663366336634</v>
+      </c>
+      <c r="I27" s="6">
+        <f>(D27-E27)/D27</f>
+        <v>-0.15347826086956526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.18</v>
+      </c>
+      <c r="B28">
+        <v>-1.4</v>
+      </c>
+      <c r="C28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>23</v>
+      </c>
+      <c r="E28">
+        <v>18.48</v>
+      </c>
+      <c r="F28">
+        <v>188</v>
+      </c>
+      <c r="G28" s="3">
+        <f>D28/F28</f>
+        <v>0.12234042553191489</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>9.8297872340425529E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <f>(D28-E28)/D28</f>
+        <v>0.19652173913043477</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.18</v>
+      </c>
+      <c r="B29">
+        <v>-1.2</v>
+      </c>
+      <c r="C29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>23.34</v>
+      </c>
+      <c r="F29">
+        <v>175</v>
+      </c>
+      <c r="G29" s="3">
+        <f>D29/F29</f>
+        <v>0.17714285714285713</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13337142857142856</v>
+      </c>
+      <c r="I29" s="6">
+        <f>(D29-E29)/D29</f>
+        <v>0.24709677419354839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.18</v>
+      </c>
+      <c r="B30">
+        <v>-1</v>
+      </c>
+      <c r="C30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2">
+        <v>300</v>
+      </c>
+      <c r="G30" s="3">
+        <f>D30/F30</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <f>(D30-E30)/D30</f>
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.18</v>
+      </c>
+      <c r="B31">
+        <v>-1</v>
+      </c>
+      <c r="C31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>48.76</v>
+      </c>
+      <c r="F31">
+        <v>270</v>
+      </c>
+      <c r="G31" s="3">
+        <f>D31/F31</f>
+        <v>0.11851851851851852</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18059259259259258</v>
+      </c>
+      <c r="I31" s="8">
+        <f>(D31-E31)/D31</f>
+        <v>-0.52374999999999994</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.18</v>
+      </c>
+      <c r="B32">
+        <v>-1</v>
+      </c>
+      <c r="C32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45.98</v>
+      </c>
+      <c r="F32">
+        <v>276</v>
+      </c>
+      <c r="G32" s="3">
+        <f>D32/F32</f>
+        <v>0.11594202898550725</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1665942028985507</v>
+      </c>
+      <c r="I32" s="8">
+        <f>(D32-E32)/D32</f>
+        <v>-0.4368749999999999</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.18</v>
+      </c>
+      <c r="B33">
+        <v>-3</v>
+      </c>
+      <c r="C33">
+        <v>0.25</v>
+      </c>
+      <c r="D33" s="2">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2">
+        <v>34.83</v>
+      </c>
+      <c r="F33">
+        <v>273</v>
+      </c>
+      <c r="G33" s="3">
+        <f>D33/F33</f>
+        <v>0.10622710622710622</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>0.12758241758241759</v>
+      </c>
+      <c r="I33" s="8">
+        <f>(D33-E33)/D33</f>
+        <v>-0.20103448275862063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.18</v>
+      </c>
+      <c r="B34">
+        <v>-4</v>
+      </c>
+      <c r="C34">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2">
+        <v>31.47</v>
+      </c>
+      <c r="F34">
+        <v>279</v>
+      </c>
+      <c r="G34" s="3">
+        <f>D34/F34</f>
+        <v>0.11827956989247312</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11279569892473118</v>
+      </c>
+      <c r="I34" s="8">
+        <f>(D34-E34)/D34</f>
+        <v>4.6363636363636399E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.18</v>
+      </c>
+      <c r="B35">
+        <v>-3.85</v>
+      </c>
+      <c r="C35">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="2">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2">
+        <v>31.51</v>
+      </c>
+      <c r="F35">
+        <v>313</v>
+      </c>
+      <c r="G35" s="3">
+        <f>D35/F35</f>
+        <v>0.11182108626198083</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1006709265175719</v>
+      </c>
+      <c r="I35" s="8">
+        <f>(D35-E35)/D35</f>
+        <v>9.9714285714285672E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.18</v>
+      </c>
+      <c r="B36">
+        <v>-3.7</v>
+      </c>
+      <c r="C36">
+        <v>0.25</v>
+      </c>
+      <c r="D36" s="2">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="E36" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>382</v>
+      </c>
+      <c r="G36" s="3">
+        <f>D36/F36</f>
+        <v>9.9162303664921472E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>9.947643979057591E-2</v>
+      </c>
+      <c r="I36" s="8">
+        <f>(D36-E36)/D36</f>
+        <v>-3.1678986272438603E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.18</v>
+      </c>
+      <c r="B37">
+        <v>-3.7</v>
+      </c>
+      <c r="C37">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="2">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2">
+        <v>17.14</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3">
+        <f>D37/F37</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1714</v>
+      </c>
+      <c r="I37" s="8">
+        <f>(D37-E37)/D37</f>
+        <v>0.40896551724137931</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.18</v>
+      </c>
+      <c r="B38">
+        <v>-3.7</v>
+      </c>
+      <c r="C38">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="2">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2">
+        <v>12.43</v>
+      </c>
+      <c r="F38">
+        <v>73</v>
+      </c>
+      <c r="G38" s="3">
+        <f>D38/F38</f>
+        <v>0.43835616438356162</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17027397260273971</v>
+      </c>
+      <c r="I38" s="8">
+        <f>(D38-E38)/D38</f>
+        <v>0.61156250000000001</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.18</v>
+      </c>
+      <c r="B39">
+        <v>-3.7</v>
+      </c>
+      <c r="C39">
+        <v>0.25</v>
+      </c>
+      <c r="D39" s="2">
+        <v>32</v>
+      </c>
+      <c r="E39" s="2">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>167</v>
+      </c>
+      <c r="G39" s="3">
+        <f>D39/F39</f>
+        <v>0.19161676646706588</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1497005988023952</v>
+      </c>
+      <c r="I39" s="8">
+        <f>(D39-E39)/D39</f>
+        <v>0.21875</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.18</v>
+      </c>
+      <c r="B40">
+        <v>-0.39898699999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.25</v>
+      </c>
+      <c r="D40" s="2">
         <v>39</v>
       </c>
-      <c r="E11">
-        <v>39.479999999999997</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>-1.2307692307692228E-2</v>
-      </c>
-      <c r="G11">
-        <v>303</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0.12871287128712872</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="B12">
-        <v>-0.4</v>
-      </c>
-      <c r="C12">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="E12">
-        <v>40.770000000000003</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>-1.925000000000008E-2</v>
-      </c>
-      <c r="G12">
-        <v>357</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E40">
+        <v>19.8</v>
+      </c>
+      <c r="F40">
+        <v>338</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" ref="G40:G47" si="4">D40/F40</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40:H47" si="5">E40/F40</f>
+        <v>5.8579881656804736E-2</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" ref="I40:I47" si="6">(D40-E40)/D40</f>
+        <v>0.49230769230769228</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.18</v>
+      </c>
+      <c r="B41">
+        <v>-0.34274199999999999</v>
+      </c>
+      <c r="C41">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="2">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>26.17</v>
+      </c>
+      <c r="G41" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="6"/>
+        <v>0.2730555555555555</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.18</v>
+      </c>
+      <c r="B42">
+        <v>-0.34275800000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="2">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>21.63</v>
+      </c>
+      <c r="F42">
+        <v>315</v>
+      </c>
+      <c r="G42" s="3">
+        <f>D42/F42</f>
+        <v>9.841269841269841E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <f>E42/F42</f>
+        <v>6.8666666666666668E-2</v>
+      </c>
+      <c r="I42" s="8">
+        <f>(D42-E42)/D42</f>
+        <v>0.30225806451612908</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.18</v>
+      </c>
+      <c r="B43">
+        <v>-2.7592999999999999E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="2">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>41.01</v>
+      </c>
+      <c r="F43">
+        <v>291</v>
+      </c>
+      <c r="G43" s="3">
+        <f>D43/F43</f>
+        <v>9.6219931271477668E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <f>E43/F43</f>
+        <v>0.14092783505154638</v>
+      </c>
+      <c r="I43" s="8">
+        <f>(D43-E43)/D43</f>
+        <v>-0.46464285714285708</v>
+      </c>
+      <c r="J43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.3</v>
+      </c>
+      <c r="B44">
+        <v>-5.3593000000000002E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="2">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>50.3</v>
+      </c>
+      <c r="F44">
+        <v>316</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11075949367088607</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15917721518987341</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.43714285714285706</v>
+      </c>
+      <c r="J44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.3</v>
+      </c>
+      <c r="B45">
+        <v>-7.1863300000000005E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="2">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>28.27</v>
+      </c>
+      <c r="F45">
+        <v>224</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11160714285714286</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12620535714285713</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.13079999999999997</v>
+      </c>
+      <c r="J45" t="s">
         <v>8</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0.11204481792717087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="B13">
-        <v>-0.4</v>
-      </c>
-      <c r="C13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D13">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>22.49</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>6.2916666666666732E-2</v>
-      </c>
-      <c r="G13">
-        <v>200</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="B14">
-        <v>-0.4</v>
-      </c>
-      <c r="C14">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D14">
-        <v>36</v>
-      </c>
-      <c r="E14">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>2.9166666666666587E-2</v>
-      </c>
-      <c r="G14">
-        <v>313</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.11501597444089456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="B15">
-        <v>-0.4</v>
-      </c>
-      <c r="C15">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>19.53</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>0.11227272727272722</v>
-      </c>
-      <c r="G15">
-        <v>164</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0.13414634146341464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f>3/20</f>
-        <v>0.15</v>
-      </c>
-      <c r="B16">
-        <v>-0.4</v>
-      </c>
-      <c r="C16">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="D16">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.3</v>
+      </c>
+      <c r="B46">
+        <v>-7.7714699999999998E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>24.36</v>
+      </c>
+      <c r="F46">
+        <v>181</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11049723756906077</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="5"/>
+        <v>0.13458563535911602</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.21799999999999997</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.3</v>
+      </c>
+      <c r="B47">
+        <v>-7.7714699999999998E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.25</v>
+      </c>
+      <c r="D47" s="2">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>30.45</v>
+      </c>
+      <c r="F47">
+        <v>190</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11052631578947368</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="5"/>
+        <v>0.16026315789473683</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="6"/>
+        <v>-0.44999999999999996</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.3</v>
+      </c>
+      <c r="B48">
+        <v>-6</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48" s="2">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>57.78</v>
+      </c>
+      <c r="F48">
+        <v>266</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" ref="G48:G55" si="7">D48/F48</f>
+        <v>0.11654135338345864</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" ref="H48:H55" si="8">E48/F48</f>
+        <v>0.21721804511278195</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" ref="I48:I55" si="9">(D48-E48)/D48</f>
+        <v>-0.8638709677419355</v>
+      </c>
+      <c r="J48" t="s">
         <v>17</v>
       </c>
-      <c r="E16">
-        <v>13.74</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>0.19176470588235292</v>
-      </c>
-      <c r="G16">
-        <v>108</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0.15740740740740741</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.2</v>
+      </c>
+      <c r="B49">
+        <v>-3.85</v>
+      </c>
+      <c r="C49">
+        <v>0.25</v>
+      </c>
+      <c r="D49" s="2">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="F49">
+        <v>251</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="7"/>
+        <v>0.10756972111553785</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="8"/>
+        <v>0.14533864541832667</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="9"/>
+        <v>-0.35111111111111099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.2</v>
+      </c>
+      <c r="B50">
+        <v>-6</v>
+      </c>
+      <c r="C50">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="2">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>21.46</v>
+      </c>
+      <c r="F50">
+        <v>221</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="7"/>
+        <v>0.10407239819004525</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="8"/>
+        <v>9.710407239819005E-2</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="9"/>
+        <v>6.6956521739130401E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.2</v>
+      </c>
+      <c r="B51">
+        <v>-5.93</v>
+      </c>
+      <c r="C51">
+        <v>0.25</v>
+      </c>
+      <c r="D51">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>26.61</v>
+      </c>
+      <c r="F51">
+        <v>220</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="7"/>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="8"/>
+        <v>0.12095454545454545</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="9"/>
+        <v>-6.4399999999999971E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.2</v>
+      </c>
+      <c r="B52">
+        <v>-5.95</v>
+      </c>
+      <c r="C52">
+        <v>0.25</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>24.56</v>
+      </c>
+      <c r="F52">
+        <v>135</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="7"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.18192592592592591</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.16952380952380947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.2</v>
+      </c>
+      <c r="B53">
+        <v>-5.95</v>
+      </c>
+      <c r="C53">
+        <v>0.25</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>26.4</v>
+      </c>
+      <c r="F53">
+        <v>170</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="7"/>
+        <v>0.14705882352941177</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="8"/>
+        <v>0.1552941176470588</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="9"/>
+        <v>-5.5999999999999946E-2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.2</v>
+      </c>
+      <c r="B54">
+        <v>-5.95</v>
+      </c>
+      <c r="C54">
+        <v>0.25</v>
+      </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>27.56</v>
+      </c>
+      <c r="F54">
+        <v>210</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12380952380952381</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="8"/>
+        <v>0.13123809523809524</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="9"/>
+        <v>-5.9999999999999949E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.2</v>
+      </c>
+      <c r="B55">
+        <v>-5.95</v>
+      </c>
+      <c r="C55">
+        <v>0.25</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>169</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="7"/>
+        <v>0.16568047337278108</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="8"/>
+        <v>0.20118343195266272</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.2</v>
+      </c>
+      <c r="B56">
+        <v>-5.95</v>
+      </c>
+      <c r="C56">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FlowSensorPID/experiments.xlsx
+++ b/FlowSensorPID/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="-21160" windowWidth="24940" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="9580" yWindow="440" windowWidth="19000" windowHeight="16760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>defRate</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>kp/(tan(double(dT)/40.0)*180.0)</t>
+  </si>
+  <si>
+    <t>kp*tan(x/50)</t>
+  </si>
+  <si>
+    <t>kp*tan((x+10)/65)</t>
+  </si>
+  <si>
+    <t>kp*tan((x+5)/65)</t>
+  </si>
+  <si>
+    <t>kp*tan((x+7)/65)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +128,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,10 +193,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -468,11 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +548,7 @@
         <v>190</v>
       </c>
       <c r="G2" s="3">
-        <f>D2/F2</f>
+        <f t="shared" ref="G2:G39" si="0">D2/F2</f>
         <v>0.13157894736842105</v>
       </c>
       <c r="H2" s="3">
@@ -544,7 +556,7 @@
         <v>0.11889473684210526</v>
       </c>
       <c r="I2" s="5">
-        <f>(D2-E2)/D2</f>
+        <f t="shared" ref="I2:I39" si="1">(D2-E2)/D2</f>
         <v>9.64E-2</v>
       </c>
     </row>
@@ -569,15 +581,15 @@
         <v>211</v>
       </c>
       <c r="G3" s="3">
-        <f>D3/F3</f>
+        <f t="shared" si="0"/>
         <v>0.14218009478672985</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H39" si="0">E3/F3</f>
+        <f t="shared" ref="H3:H39" si="2">E3/F3</f>
         <v>0.13251184834123222</v>
       </c>
       <c r="I3" s="5">
-        <f>(D3-E3)/D3</f>
+        <f t="shared" si="1"/>
         <v>6.7999999999999977E-2</v>
       </c>
     </row>
@@ -602,21 +614,21 @@
         <v>180</v>
       </c>
       <c r="G4" s="3">
-        <f>D4/F4</f>
+        <f t="shared" si="0"/>
         <v>0.12222222222222222</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13355555555555554</v>
       </c>
       <c r="I4" s="5">
-        <f>(D4-E4)/D4</f>
+        <f t="shared" si="1"/>
         <v>-9.2727272727272686E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A9" si="1">2/17</f>
+        <f t="shared" ref="A5:A9" si="3">2/17</f>
         <v>0.11764705882352941</v>
       </c>
       <c r="B5">
@@ -635,15 +647,15 @@
         <v>340</v>
       </c>
       <c r="G5" s="3">
-        <f>D5/F5</f>
+        <f t="shared" si="0"/>
         <v>0.11470588235294117</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13223529411764706</v>
       </c>
       <c r="I5" s="5">
-        <f>(D5-E5)/D5</f>
+        <f t="shared" si="1"/>
         <v>-0.15282051282051284</v>
       </c>
       <c r="J5" t="s">
@@ -652,7 +664,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B6">
@@ -671,15 +683,15 @@
         <v>347</v>
       </c>
       <c r="G6" s="3">
-        <f>D6/F6</f>
+        <f t="shared" si="0"/>
         <v>0.12968299711815562</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13051873198847261</v>
       </c>
       <c r="I6" s="5">
-        <f>(D6-E6)/D6</f>
+        <f t="shared" si="1"/>
         <v>-6.4444444444444254E-3</v>
       </c>
       <c r="J6" t="s">
@@ -688,7 +700,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B7">
@@ -707,15 +719,15 @@
         <v>330</v>
       </c>
       <c r="G7" s="3">
-        <f>D7/F7</f>
+        <f t="shared" si="0"/>
         <v>0.11212121212121212</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13175757575757574</v>
       </c>
       <c r="I7" s="5">
-        <f>(D7-E7)/D7</f>
+        <f t="shared" si="1"/>
         <v>-0.17513513513513504</v>
       </c>
       <c r="J7" t="s">
@@ -724,7 +736,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B8">
@@ -743,15 +755,15 @@
         <v>253</v>
       </c>
       <c r="G8" s="3">
-        <f>D8/F8</f>
+        <f t="shared" si="0"/>
         <v>0.15019762845849802</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14588932806324109</v>
       </c>
       <c r="I8" s="5">
-        <f>(D8-E8)/D8</f>
+        <f t="shared" si="1"/>
         <v>2.8684210526315878E-2</v>
       </c>
       <c r="J8" t="s">
@@ -760,7 +772,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="B9">
@@ -779,15 +791,15 @@
         <v>353</v>
       </c>
       <c r="G9" s="3">
-        <f>D9/F9</f>
+        <f t="shared" si="0"/>
         <v>0.11331444759206799</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13640226628895183</v>
       </c>
       <c r="I9" s="5">
-        <f>(D9-E9)/D9</f>
+        <f t="shared" si="1"/>
         <v>-0.20374999999999996</v>
       </c>
       <c r="J9" t="s">
@@ -815,15 +827,15 @@
         <v>313</v>
       </c>
       <c r="G10" s="3">
-        <f>D10/F10</f>
+        <f t="shared" si="0"/>
         <v>0.13418530351437699</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11638977635782748</v>
       </c>
       <c r="I10" s="5">
-        <f>(D10-E10)/D10</f>
+        <f t="shared" si="1"/>
         <v>0.13261904761904764</v>
       </c>
       <c r="J10" t="s">
@@ -832,7 +844,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" ref="A11:A17" si="2">3/20</f>
+        <f t="shared" ref="A11:A17" si="4">3/20</f>
         <v>0.15</v>
       </c>
       <c r="B11">
@@ -851,15 +863,15 @@
         <v>303</v>
       </c>
       <c r="G11" s="3">
-        <f>D11/F11</f>
+        <f t="shared" si="0"/>
         <v>0.12871287128712872</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13029702970297027</v>
       </c>
       <c r="I11" s="5">
-        <f>(D11-E11)/D11</f>
+        <f t="shared" si="1"/>
         <v>-1.2307692307692228E-2</v>
       </c>
       <c r="J11" t="s">
@@ -868,7 +880,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B12">
@@ -887,15 +899,15 @@
         <v>357</v>
       </c>
       <c r="G12" s="3">
-        <f>D12/F12</f>
+        <f t="shared" si="0"/>
         <v>0.11204481792717087</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11420168067226892</v>
       </c>
       <c r="I12" s="5">
-        <f>(D12-E12)/D12</f>
+        <f t="shared" si="1"/>
         <v>-1.925000000000008E-2</v>
       </c>
       <c r="J12" t="s">
@@ -904,7 +916,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B13">
@@ -923,15 +935,15 @@
         <v>200</v>
       </c>
       <c r="G13" s="3">
-        <f>D13/F13</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11244999999999999</v>
       </c>
       <c r="I13" s="5">
-        <f>(D13-E13)/D13</f>
+        <f t="shared" si="1"/>
         <v>6.2916666666666732E-2</v>
       </c>
       <c r="J13" t="s">
@@ -940,7 +952,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B14">
@@ -959,21 +971,21 @@
         <v>313</v>
       </c>
       <c r="G14" s="3">
-        <f>D14/F14</f>
+        <f t="shared" si="0"/>
         <v>0.11501597444089456</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11166134185303515</v>
       </c>
       <c r="I14" s="5">
-        <f>(D14-E14)/D14</f>
+        <f t="shared" si="1"/>
         <v>2.9166666666666587E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B15">
@@ -992,21 +1004,21 @@
         <v>164</v>
       </c>
       <c r="G15" s="3">
-        <f>D15/F15</f>
+        <f t="shared" si="0"/>
         <v>0.13414634146341464</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11908536585365855</v>
       </c>
       <c r="I15" s="6">
-        <f>(D15-E15)/D15</f>
+        <f t="shared" si="1"/>
         <v>0.11227272727272722</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B16" s="1">
@@ -1025,22 +1037,22 @@
         <v>108</v>
       </c>
       <c r="G16" s="4">
-        <f>D16/F16</f>
+        <f t="shared" si="0"/>
         <v>0.15740740740740741</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12722222222222224</v>
       </c>
       <c r="I16" s="7">
-        <f>(D16-E16)/D16</f>
+        <f t="shared" si="1"/>
         <v>0.19176470588235292</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="B17">
@@ -1057,15 +1069,15 @@
         <v>24</v>
       </c>
       <c r="G17" s="3">
-        <f>D17/F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17208333333333334</v>
       </c>
       <c r="I17" s="6" t="e">
-        <f>(D17-E17)/D17</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" t="s">
@@ -1096,21 +1108,21 @@
         <v>115</v>
       </c>
       <c r="G18" s="3">
-        <f>D18/F18</f>
+        <f t="shared" si="0"/>
         <v>0.18260869565217391</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.14721739130434783</v>
       </c>
       <c r="I18" s="6">
-        <f>(D18-E18)/D18</f>
+        <f t="shared" si="1"/>
         <v>0.19380952380952382</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" ref="A19:A23" si="3">3/20</f>
+        <f t="shared" ref="A19:A23" si="5">3/20</f>
         <v>0.15</v>
       </c>
       <c r="B19">
@@ -1126,21 +1138,21 @@
         <v>107</v>
       </c>
       <c r="G19" s="3">
-        <f>D19/F19</f>
+        <f t="shared" si="0"/>
         <v>0.20560747663551401</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <f>(D19-E19)/D19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
       <c r="B20">
@@ -1159,21 +1171,21 @@
         <v>97</v>
       </c>
       <c r="G20" s="3">
-        <f>D20/F20</f>
+        <f t="shared" si="0"/>
         <v>0.37113402061855671</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.19154639175257729</v>
       </c>
       <c r="I20" s="6">
-        <f>(D20-E20)/D20</f>
+        <f t="shared" si="1"/>
         <v>0.48388888888888892</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
       <c r="B21">
@@ -1192,21 +1204,21 @@
         <v>184</v>
       </c>
       <c r="G21" s="3">
-        <f>D21/F21</f>
+        <f t="shared" si="0"/>
         <v>0.20652173913043478</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17766304347826087</v>
       </c>
       <c r="I21" s="6">
-        <f>(D21-E21)/D21</f>
+        <f t="shared" si="1"/>
         <v>0.13973684210526321</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
       <c r="B22">
@@ -1222,21 +1234,21 @@
         <v>309</v>
       </c>
       <c r="G22" s="3">
-        <f>D22/F22</f>
+        <f t="shared" si="0"/>
         <v>0.14886731391585761</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f>(D22-E22)/D22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15</v>
       </c>
       <c r="B23">
@@ -1255,15 +1267,15 @@
         <v>509</v>
       </c>
       <c r="G23" s="3">
-        <f>D23/F23</f>
+        <f t="shared" si="0"/>
         <v>9.4302554027504912E-2</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11787819253438114</v>
       </c>
       <c r="I23" s="6">
-        <f>(D23-E23)/D23</f>
+        <f t="shared" si="1"/>
         <v>-0.25</v>
       </c>
       <c r="J23" t="s">
@@ -1290,15 +1302,15 @@
         <v>430</v>
       </c>
       <c r="G24" s="3">
-        <f>D24/F24</f>
+        <f t="shared" si="0"/>
         <v>0.1186046511627907</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.15062790697674416</v>
       </c>
       <c r="I24" s="6">
-        <f>(D24-E24)/D24</f>
+        <f t="shared" si="1"/>
         <v>-0.26999999999999991</v>
       </c>
     </row>
@@ -1322,15 +1334,15 @@
         <v>298</v>
       </c>
       <c r="G25" s="3">
-        <f>D25/F25</f>
+        <f t="shared" si="0"/>
         <v>0.10067114093959731</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13906040268456374</v>
       </c>
       <c r="I25" s="6">
-        <f>(D25-E25)/D25</f>
+        <f t="shared" si="1"/>
         <v>-0.38133333333333325</v>
       </c>
     </row>
@@ -1354,15 +1366,15 @@
         <v>258</v>
       </c>
       <c r="G26" s="3">
-        <f>D26/F26</f>
+        <f t="shared" si="0"/>
         <v>9.6899224806201556E-2</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1160077519379845</v>
       </c>
       <c r="I26" s="6">
-        <f>(D26-E26)/D26</f>
+        <f t="shared" si="1"/>
         <v>-0.19719999999999999</v>
       </c>
       <c r="J26" t="s">
@@ -1389,15 +1401,15 @@
         <v>202</v>
       </c>
       <c r="G27" s="3">
-        <f>D27/F27</f>
+        <f t="shared" si="0"/>
         <v>0.11386138613861387</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13133663366336634</v>
       </c>
       <c r="I27" s="6">
-        <f>(D27-E27)/D27</f>
+        <f t="shared" si="1"/>
         <v>-0.15347826086956526</v>
       </c>
     </row>
@@ -1421,15 +1433,15 @@
         <v>188</v>
       </c>
       <c r="G28" s="3">
-        <f>D28/F28</f>
+        <f t="shared" si="0"/>
         <v>0.12234042553191489</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.8297872340425529E-2</v>
       </c>
       <c r="I28" s="6">
-        <f>(D28-E28)/D28</f>
+        <f t="shared" si="1"/>
         <v>0.19652173913043477</v>
       </c>
       <c r="J28" t="s">
@@ -1456,15 +1468,15 @@
         <v>175</v>
       </c>
       <c r="G29" s="3">
-        <f>D29/F29</f>
+        <f t="shared" si="0"/>
         <v>0.17714285714285713</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13337142857142856</v>
       </c>
       <c r="I29" s="6">
-        <f>(D29-E29)/D29</f>
+        <f t="shared" si="1"/>
         <v>0.24709677419354839</v>
       </c>
     </row>
@@ -1485,15 +1497,15 @@
         <v>300</v>
       </c>
       <c r="G30" s="3">
-        <f>D30/F30</f>
+        <f t="shared" si="0"/>
         <v>0.10666666666666667</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <f>(D30-E30)/D30</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" t="s">
@@ -1520,15 +1532,15 @@
         <v>270</v>
       </c>
       <c r="G31" s="3">
-        <f>D31/F31</f>
+        <f t="shared" si="0"/>
         <v>0.11851851851851852</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18059259259259258</v>
       </c>
       <c r="I31" s="8">
-        <f>(D31-E31)/D31</f>
+        <f t="shared" si="1"/>
         <v>-0.52374999999999994</v>
       </c>
       <c r="J31" t="s">
@@ -1555,15 +1567,15 @@
         <v>276</v>
       </c>
       <c r="G32" s="3">
-        <f>D32/F32</f>
+        <f t="shared" si="0"/>
         <v>0.11594202898550725</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1665942028985507</v>
       </c>
       <c r="I32" s="8">
-        <f>(D32-E32)/D32</f>
+        <f t="shared" si="1"/>
         <v>-0.4368749999999999</v>
       </c>
       <c r="J32" t="s">
@@ -1590,15 +1602,15 @@
         <v>273</v>
       </c>
       <c r="G33" s="3">
-        <f>D33/F33</f>
+        <f t="shared" si="0"/>
         <v>0.10622710622710622</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12758241758241759</v>
       </c>
       <c r="I33" s="8">
-        <f>(D33-E33)/D33</f>
+        <f t="shared" si="1"/>
         <v>-0.20103448275862063</v>
       </c>
     </row>
@@ -1622,15 +1634,15 @@
         <v>279</v>
       </c>
       <c r="G34" s="3">
-        <f>D34/F34</f>
+        <f t="shared" si="0"/>
         <v>0.11827956989247312</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.11279569892473118</v>
       </c>
       <c r="I34" s="8">
-        <f>(D34-E34)/D34</f>
+        <f t="shared" si="1"/>
         <v>4.6363636363636399E-2</v>
       </c>
     </row>
@@ -1654,15 +1666,15 @@
         <v>313</v>
       </c>
       <c r="G35" s="3">
-        <f>D35/F35</f>
+        <f t="shared" si="0"/>
         <v>0.11182108626198083</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1006709265175719</v>
       </c>
       <c r="I35" s="8">
-        <f>(D35-E35)/D35</f>
+        <f t="shared" si="1"/>
         <v>9.9714285714285672E-2</v>
       </c>
     </row>
@@ -1686,15 +1698,15 @@
         <v>382</v>
       </c>
       <c r="G36" s="3">
-        <f>D36/F36</f>
+        <f t="shared" si="0"/>
         <v>9.9162303664921472E-2</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.947643979057591E-2</v>
       </c>
       <c r="I36" s="8">
-        <f>(D36-E36)/D36</f>
+        <f t="shared" si="1"/>
         <v>-3.1678986272438603E-3</v>
       </c>
     </row>
@@ -1718,15 +1730,15 @@
         <v>100</v>
       </c>
       <c r="G37" s="3">
-        <f>D37/F37</f>
+        <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1714</v>
       </c>
       <c r="I37" s="8">
-        <f>(D37-E37)/D37</f>
+        <f t="shared" si="1"/>
         <v>0.40896551724137931</v>
       </c>
       <c r="J37" t="s">
@@ -1753,15 +1765,15 @@
         <v>73</v>
       </c>
       <c r="G38" s="3">
-        <f>D38/F38</f>
+        <f t="shared" si="0"/>
         <v>0.43835616438356162</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17027397260273971</v>
       </c>
       <c r="I38" s="8">
-        <f>(D38-E38)/D38</f>
+        <f t="shared" si="1"/>
         <v>0.61156250000000001</v>
       </c>
       <c r="J38" t="s">
@@ -1788,15 +1800,15 @@
         <v>167</v>
       </c>
       <c r="G39" s="3">
-        <f>D39/F39</f>
+        <f t="shared" si="0"/>
         <v>0.19161676646706588</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.1497005988023952</v>
       </c>
       <c r="I39" s="8">
-        <f>(D39-E39)/D39</f>
+        <f t="shared" si="1"/>
         <v>0.21875</v>
       </c>
       <c r="J39" t="s">
@@ -1823,15 +1835,15 @@
         <v>338</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" ref="G40:G47" si="4">D40/F40</f>
+        <f t="shared" ref="G40:G47" si="6">D40/F40</f>
         <v>0.11538461538461539</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" ref="H40:H47" si="5">E40/F40</f>
+        <f t="shared" ref="H40:H47" si="7">E40/F40</f>
         <v>5.8579881656804736E-2</v>
       </c>
       <c r="I40" s="8">
-        <f t="shared" ref="I40:I47" si="6">(D40-E40)/D40</f>
+        <f t="shared" ref="I40:I47" si="8">(D40-E40)/D40</f>
         <v>0.49230769230769228</v>
       </c>
       <c r="J40" t="s">
@@ -1855,15 +1867,15 @@
         <v>26.17</v>
       </c>
       <c r="G41" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I41" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.2730555555555555</v>
       </c>
       <c r="J41" t="s">
@@ -1960,15 +1972,15 @@
         <v>316</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11075949367088607</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15917721518987341</v>
       </c>
       <c r="I44" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.43714285714285706</v>
       </c>
       <c r="J44" t="s">
@@ -1995,15 +2007,15 @@
         <v>224</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11160714285714286</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12620535714285713</v>
       </c>
       <c r="I45" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.13079999999999997</v>
       </c>
       <c r="J45" t="s">
@@ -2030,15 +2042,15 @@
         <v>181</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11049723756906077</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13458563535911602</v>
       </c>
       <c r="I46" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.21799999999999997</v>
       </c>
       <c r="J46" t="s">
@@ -2065,15 +2077,15 @@
         <v>190</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11052631578947368</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16026315789473683</v>
       </c>
       <c r="I47" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.44999999999999996</v>
       </c>
       <c r="J47" t="s">
@@ -2100,15 +2112,15 @@
         <v>266</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" ref="G48:G55" si="7">D48/F48</f>
+        <f t="shared" ref="G48:G58" si="9">D48/F48</f>
         <v>0.11654135338345864</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" ref="H48:H55" si="8">E48/F48</f>
+        <f t="shared" ref="H48:H58" si="10">E48/F48</f>
         <v>0.21721804511278195</v>
       </c>
       <c r="I48" s="8">
-        <f t="shared" ref="I48:I55" si="9">(D48-E48)/D48</f>
+        <f t="shared" ref="I48:I58" si="11">(D48-E48)/D48</f>
         <v>-0.8638709677419355</v>
       </c>
       <c r="J48" t="s">
@@ -2135,15 +2147,15 @@
         <v>251</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10756972111553785</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14533864541832667</v>
       </c>
       <c r="I49" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.35111111111111099</v>
       </c>
     </row>
@@ -2167,15 +2179,15 @@
         <v>221</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10407239819004525</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.710407239819005E-2</v>
       </c>
       <c r="I50" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.6956521739130401E-2</v>
       </c>
     </row>
@@ -2199,15 +2211,15 @@
         <v>220</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.12095454545454545</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.4399999999999971E-2</v>
       </c>
     </row>
@@ -2231,15 +2243,15 @@
         <v>135</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.18192592592592591</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.16952380952380947</v>
       </c>
     </row>
@@ -2263,15 +2275,15 @@
         <v>170</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14705882352941177</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1552941176470588</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-5.5999999999999946E-2</v>
       </c>
       <c r="J53" t="s">
@@ -2298,59 +2310,332 @@
         <v>210</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12380952380952381</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.13123809523809524</v>
       </c>
       <c r="I54" s="5">
+        <f t="shared" si="11"/>
+        <v>-5.9999999999999949E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-5.95</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D55" s="1">
+        <v>28</v>
+      </c>
+      <c r="E55" s="1">
+        <v>34</v>
+      </c>
+      <c r="F55" s="1">
+        <v>169</v>
+      </c>
+      <c r="G55" s="4">
         <f t="shared" si="9"/>
-        <v>-5.9999999999999949E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55">
+        <v>0.16568047337278108</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="10"/>
+        <v>0.20118343195266272</v>
+      </c>
+      <c r="I55" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.21428571428571427</v>
+      </c>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.09</v>
+      </c>
+      <c r="B56">
+        <v>0.25</v>
+      </c>
+      <c r="C56">
+        <v>0.25</v>
+      </c>
+      <c r="D56">
+        <v>38</v>
+      </c>
+      <c r="E56">
+        <v>53.19</v>
+      </c>
+      <c r="F56">
+        <v>322</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="9"/>
+        <v>0.11801242236024845</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="10"/>
+        <v>0.16518633540372671</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.39973684210526311</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.04</v>
+      </c>
+      <c r="B57">
         <v>0.2</v>
       </c>
-      <c r="B55">
-        <v>-5.95</v>
-      </c>
-      <c r="C55">
-        <v>0.25</v>
-      </c>
-      <c r="D55">
+      <c r="C57">
+        <v>0.25</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57">
+        <v>36.69</v>
+      </c>
+      <c r="F57">
+        <v>278</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="9"/>
+        <v>0.11510791366906475</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="10"/>
+        <v>0.13197841726618703</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.14656249999999993</v>
+      </c>
+      <c r="J57" t="s">
         <v>28</v>
       </c>
-      <c r="E55">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.04</v>
+      </c>
+      <c r="B58">
+        <v>0.2</v>
+      </c>
+      <c r="C58">
+        <v>0.25</v>
+      </c>
+      <c r="D58">
+        <v>32</v>
+      </c>
+      <c r="E58">
+        <v>24.61</v>
+      </c>
+      <c r="F58">
+        <v>240</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="9"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="10"/>
+        <v>0.10254166666666667</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.23093750000000002</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.04</v>
+      </c>
+      <c r="B59">
+        <v>0.2</v>
+      </c>
+      <c r="C59">
+        <v>0.25</v>
+      </c>
+      <c r="D59">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="F59">
+        <v>288</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" ref="G59:G66" si="12">D59/F59</f>
+        <v>0.125</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" ref="H59:H66" si="13">E59/F59</f>
+        <v>0.1245486111111111</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" ref="I59:I66" si="14">(D59-E59)/D59</f>
+        <v>3.6111111111111821E-3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.04</v>
+      </c>
+      <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
+        <v>0.25</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>29.2</v>
+      </c>
+      <c r="F60">
+        <v>218</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="12"/>
+        <v>0.13302752293577982</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="13"/>
+        <v>0.13394495412844037</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="14"/>
+        <v>-6.8965517241379067E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0.04</v>
+      </c>
+      <c r="B61">
+        <v>0.2</v>
+      </c>
+      <c r="C61">
+        <v>0.25</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <v>33.909999999999997</v>
+      </c>
+      <c r="F61">
+        <v>259</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="12"/>
+        <v>0.12741312741312741</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="13"/>
+        <v>0.13092664092664091</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="14"/>
+        <v>-2.7575757575757472E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D62">
         <v>34</v>
       </c>
-      <c r="F55">
-        <v>169</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="7"/>
-        <v>0.16568047337278108</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="8"/>
-        <v>0.20118343195266272</v>
-      </c>
-      <c r="I55" s="5">
-        <f t="shared" si="9"/>
-        <v>-0.21428571428571427</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>0.2</v>
-      </c>
-      <c r="B56">
-        <v>-5.95</v>
-      </c>
-      <c r="C56">
-        <v>0.25</v>
+      <c r="E62">
+        <v>9.75</v>
+      </c>
+      <c r="F62">
+        <v>65</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="12"/>
+        <v>0.52307692307692311</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="14"/>
+        <v>0.71323529411764708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G63" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I63" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G64" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I64" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G65" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I65" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G66" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I66" s="5" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/FlowSensorPID/experiments.xlsx
+++ b/FlowSensorPID/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27713"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -187,7 +188,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -197,6 +198,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -215,6 +217,1215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>12.56213162172835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.03893676862551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.66513155006636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.99669253630728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.73018007395764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.21113171371737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.09851638615519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.16687775951877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.84821837943097</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.40340021031863</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.49781533173743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.1666544082008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.37759648633266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.34231681521034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.71174016641174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.3388278696872</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.12668214002322</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.97085402620825</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.71579450656952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.70345674153673</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.53771641125248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.63834492269809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.28592711156382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.94355428157718</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.3293861636494</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.24639047726234</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.81148897690857</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.05630700083868</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.74235885743128</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.92736430015828</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.82712939168115</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.02979491826224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.5999854511225</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.26109041212718</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.87378546322811</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.85483073297888</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.43555458616037</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.29224529064471</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.11862535032876</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.24788281197075</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.76081630341213</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.85359392413083</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.49679690189117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.57071885147761</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.83653591738678</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.74374072824965</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.46824344302955</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.33784975886676</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.72788059134848</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.80259897791641</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.27489847956965</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.49720005241128</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.29198438855115</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.61925529347</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.2104870787271</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.00492776564608</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.91937342077442</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0943025540275049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0962199312714776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0968992248062015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0984126984126984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0991623036649214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.100671140939597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.104072398190045</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.106227106227106</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.106666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.107569721115538</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.110497237569061</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.110526315789474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.110759493670886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.111607142857143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.111821086261981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.112044817927171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.112121212121212</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.113314447592068</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.113636363636364</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.113861386138614</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.114705882352941</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.115015974440895</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.115107913669065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.115384615384615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.115942028985507</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.116541353383459</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.118012422360248</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.118279569892473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.118518518518519</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.118604651162791</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.122222222222222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.122340425531915</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.123809523809524</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.127413127413127</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.128712871287129</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.129682997118156</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.131578947368421</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.13302752293578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.134146341463415</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.134185303514377</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14218009478673</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.147058823529412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.148867313915858</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.150197628458498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.155555555555556</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.157407407407407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.165680473372781</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.177142857142857</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.182608695652174</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.191616766467066</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.205607476635514</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.206521739130435</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.371134020618557</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.438356164383562</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.523076923076923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="179409216"/>
+        <c:axId val="184234640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="179409216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184234640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="184234640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="179409216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,8 +1694,8 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2642,4 +3853,566 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <f ca="1">10+RAND()*3</f>
+        <v>12.562131621728348</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A43" ca="1" si="0">10+RAND()*3</f>
+        <v>10.038936768625508</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9.4302554027504912E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.665131550066359</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9.6219931271477668E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.996692536307275</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9.6899224806201556E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.730180073957644</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.841269841269841E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.211131713717368</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9.9162303664921472E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.098516386155195</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.10067114093959731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.166877759518766</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.10407239819004525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.848218379430975</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.10622710622710622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.403400210318631</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.10666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.49781533173743</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.10756972111553785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.166654408200804</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.11049723756906077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.377596486332656</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.11052631578947368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.342316815210342</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.11075949367088607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.711740166411744</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.11160714285714286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.338827869687202</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.11182108626198083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.126682140023217</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.11204481792717087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.970854026208251</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.11212121212121212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.715794506569521</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.11331444759206799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.703456741536733</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.11363636363636363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.537716411252475</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.11386138613861387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.638344922698089</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.11470588235294117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.28592711156382</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.11501597444089456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.943554281577184</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.11510791366906475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.329386163649396</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.246390477262342</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.11594202898550725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.811488976908571</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.11654135338345864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.056307000838684</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.11801242236024845</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.742358857431277</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.11827956989247312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.927364300158278</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.11851851851851852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.827129391681151</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.1186046511627907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.02979491826224</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.599985451122496</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.12222222222222222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.261090412127178</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.12234042553191489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.87378546322811</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.12380952380952381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.854830732978881</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.435554586160372</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.12741312741312741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.292245290644708</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.12871287128712872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.11862535032876</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.12968299711815562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.247882811970747</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.760816303412128</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.13302752293577982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.853593924130831</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.13333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.496796901891168</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.13414634146341464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <f t="shared" ref="A43:A54" ca="1" si="1">15+RAND()*5</f>
+        <v>16.570718851477615</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.13418530351437699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.836535917386779</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.14218009478672985</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.743740728249652</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.14705882352941177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.468243443029554</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.14886731391585761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.337849758866763</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.15019762845849802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>16.72788059134848</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.802598977916412</v>
+      </c>
+      <c r="B50" s="9">
+        <v>0.15740740740740741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.27489847956965</v>
+      </c>
+      <c r="B51" s="9">
+        <v>0.16568047337278108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>15.497200052411277</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.17714285714285713</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.29198438855115</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.18260869565217391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.61925529346999</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0.19161676646706588</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f ca="1">40+RAND()*5</f>
+        <v>44.210487078727098</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.20560747663551401</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <f t="shared" ref="A56:A57" ca="1" si="2">40+RAND()*5</f>
+        <v>40.00492776564608</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.20652173913043478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>44.91937342077442</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.37113402061855671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.43835616438356162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="B1:B61">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>